--- a/14 McKinsey Style Data Visualization/McKinsey Style Data Visualization.xlsx
+++ b/14 McKinsey Style Data Visualization/McKinsey Style Data Visualization.xlsx
@@ -8,25 +8,71 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b7f320934ce7607/06 Data Science ^0 Analytics/Github/Microsoft-Excel-For-Analytics/14 McKinsey Style Data Visualization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_AD4DB114E441178AC67DF45BDE10D956693EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_AD4DB114E441178AC67DF45BDE10D956693EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF45844B-2FB8-473A-A2DB-7198FE2D15FD}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="20098" windowHeight="11914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Advanced industries</t>
+  </si>
+  <si>
+    <t>Travel, logistics, and infrastructure</t>
+  </si>
+  <si>
+    <t>Life sciences</t>
+  </si>
+  <si>
+    <t>Consumer</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
+    <t>Global energy and materials</t>
+  </si>
+  <si>
+    <t>Telecommunications, media, and te</t>
+  </si>
+  <si>
+    <t>Helper</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,13 +80,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -52,14 +134,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -337,14 +439,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="146" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.6328125" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="D3" s="6">
+        <f>1-C3</f>
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" ref="D4:D9" si="0">1-C4</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.29000000000000004</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/14 McKinsey Style Data Visualization/McKinsey Style Data Visualization.xlsx
+++ b/14 McKinsey Style Data Visualization/McKinsey Style Data Visualization.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b7f320934ce7607/06 Data Science ^0 Analytics/Github/Microsoft-Excel-For-Analytics/14 McKinsey Style Data Visualization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_AD4DB114E441178AC67DF45BDE10D956693EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF45844B-2FB8-473A-A2DB-7198FE2D15FD}"/>
+  <xr:revisionPtr revIDLastSave="770" documentId="11_AD4DB114E441178AC67DF45BDE10D956693EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F332010C-D9E6-4115-94A7-5E6036BCE34B}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="20098" windowHeight="11914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>Sector</t>
   </si>
@@ -66,6 +71,60 @@
   </si>
   <si>
     <t>Helper</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Divestiture</t>
+  </si>
+  <si>
+    <t>Merger or Acquisition</t>
+  </si>
+  <si>
+    <t>Entry level</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Senior manager director</t>
+  </si>
+  <si>
+    <t>Vice president</t>
+  </si>
+  <si>
+    <t>Senior vice resident</t>
+  </si>
+  <si>
+    <t>C-suite</t>
+  </si>
+  <si>
+    <t>White Women</t>
+  </si>
+  <si>
+    <t>Women of color</t>
+  </si>
+  <si>
+    <t>Men of color</t>
+  </si>
+  <si>
+    <t>White men</t>
   </si>
 </sst>
 </file>
@@ -111,7 +170,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +180,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0099FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -138,7 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -158,6 +223,30 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -165,6 +254,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF2CAEEC"/>
+      <color rgb="FF6ECDF4"/>
+      <color rgb="FF344551"/>
+      <color rgb="FF0099FF"/>
+      <color rgb="FF0A1A68"/>
+      <color rgb="FF0D9CF2"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -174,6 +273,5794 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2316110650988073"/>
+          <c:y val="3.7059349949171441E-2"/>
+          <c:w val="0.71335672956792628"/>
+          <c:h val="0.93144973025198974"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Advanced industries</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0A1A68"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-FE6C-4309-ACD0-5636E7EFBB31}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$C$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Helper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE6C-4309-ACD0-5636E7EFBB31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Global energy and materials</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0A1A68"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-FE6C-4309-ACD0-5636E7EFBB31}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-FE6C-4309-ACD0-5636E7EFBB31}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$C$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Helper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FE6C-4309-ACD0-5636E7EFBB31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Travel, logistics, and infrastructure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0A1A68"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-FE6C-4309-ACD0-5636E7EFBB31}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-FE6C-4309-ACD0-5636E7EFBB31}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$C$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Helper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FE6C-4309-ACD0-5636E7EFBB31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Life sciences</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0A1A68"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-FE6C-4309-ACD0-5636E7EFBB31}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-FE6C-4309-ACD0-5636E7EFBB31}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$C$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Helper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$6:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FE6C-4309-ACD0-5636E7EFBB31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Consumer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0A1A68"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000012-FE6C-4309-ACD0-5636E7EFBB31}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-FE6C-4309-ACD0-5636E7EFBB31}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$C$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Helper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$7:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FE6C-4309-ACD0-5636E7EFBB31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Telecommunications, media, and te</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0099FF"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-FE6C-4309-ACD0-5636E7EFBB31}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-FE6C-4309-ACD0-5636E7EFBB31}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$C$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Helper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FE6C-4309-ACD0-5636E7EFBB31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Financial Services</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0099FF"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-FE6C-4309-ACD0-5636E7EFBB31}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-FE6C-4309-ACD0-5636E7EFBB31}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$C$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Helper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$9:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-FE6C-4309-ACD0-5636E7EFBB31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="25"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1025" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Following s</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1025" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> sharp decline in 2020, M&amp;A activity in the machinery sector surpassed prepandemic levels in 2021 and 2022</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="1025" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.7131927947513399E-2"/>
+          <c:y val="1.8394813531630388E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.38559353007285E-2"/>
+          <c:y val="0.25794127274728718"/>
+          <c:w val="0.87740291917564894"/>
+          <c:h val="0.62866520280644023"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merger or Acquisition</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0099FF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-850B-4563-9001-5228BC42B6BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="-27"/>
+        <c:axId val="267630272"/>
+        <c:axId val="267629280"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Divestiture</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-850B-4563-9001-5228BC42B6BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="200"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1110999295"/>
+        <c:axId val="1109014271"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="267630272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="267629280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="267629280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="267630272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1109014271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1110999295"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1110999295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1109014271"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.66511477769492544"/>
+          <c:y val="0.15739804638389829"/>
+          <c:w val="0.30301645733953203"/>
+          <c:h val="6.4236657917760273E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>At every step up</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> the corporate ladder, women of color lose ground to White women &amp; men of color</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.4840113735783029E-2"/>
+          <c:y val="2.3148148148148147E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.3929763689032381E-2"/>
+          <c:y val="0.17430789057465879"/>
+          <c:w val="0.93214047262193522"/>
+          <c:h val="0.78477476422002224"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>White Women</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="344551"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="65000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Entry level</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Manager</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Senior manager director</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vice president</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Senior vice resident</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>C-suite</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5612-40DF-B159-C112CEEF7F90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Women of color</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="6ECDF4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Entry level</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Manager</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Senior manager director</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vice president</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Senior vice resident</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>C-suite</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5612-40DF-B159-C112CEEF7F90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Men of color</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="2CAEEC"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Entry level</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Manager</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Senior manager director</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vice president</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Senior vice resident</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>C-suite</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5612-40DF-B159-C112CEEF7F90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>White men</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="65000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Entry level</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Manager</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Senior manager director</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vice president</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Senior vice resident</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>C-suite</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5612-40DF-B159-C112CEEF7F90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="100"/>
+        <c:axId val="246954544"/>
+        <c:axId val="246952064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="246954544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="246952064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="246952064"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="246954544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1146227</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>46436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>98549</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="A blue and white graph&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FFF529E-371D-180F-F02C-AFB42158847D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1448060" y="2089615"/>
+          <a:ext cx="3028406" cy="3024009"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="190500" cap="rnd">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="41000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7800000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d contourW="6350">
+          <a:bevelT w="50800" h="16510"/>
+          <a:contourClr>
+            <a:srgbClr val="C0C0C0"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>481384</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104092</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>25538</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="Group 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D168C988-4DD5-052C-D7A2-41B68DF2ECCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6719271" y="930719"/>
+          <a:ext cx="5334322" cy="4109894"/>
+          <a:chOff x="381548" y="1936834"/>
+          <a:chExt cx="5321939" cy="4075841"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="5" name="Chart 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBBCC361-49AC-9675-BDC1-D13C3C2E0F51}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="381548" y="1936834"/>
+          <a:ext cx="5321939" cy="4075841"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:sp macro="" textlink="$C$9">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="TextBox 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A26FD28-7B4C-BACA-D6F0-4C3605E1156B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1552504" y="4164138"/>
+            <a:ext cx="453911" cy="230245"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:fld id="{51505A84-ACD8-4C1D-BD8F-FC460ED15CB4}" type="TxLink">
+              <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:rPr>
+              <a:t>71%</a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-IN" sz="1100" b="1"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="$C$8">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="TextBox 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05FD41E8-734E-8A19-E851-20F0AF2A90CD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1849634" y="4257335"/>
+            <a:ext cx="453911" cy="230245"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:fld id="{EF0B9AA1-DAAC-4B4B-AB6E-D9921A09A4C2}" type="TxLink">
+              <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:rPr>
+              <a:t>70%</a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-IN" sz="1100" b="1"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="$C$7">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="TextBox 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FBCC82D-C0C8-35D3-65B9-6DE3D7F3861F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4067657" y="4962322"/>
+            <a:ext cx="453911" cy="230245"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0"/>
+            <a:fld id="{56466482-93E6-4060-A0C2-C4EE3DC601B9}" type="TxLink">
+              <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:rPr>
+              <a:pPr marL="0" indent="0"/>
+              <a:t>39%</a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-IN" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="$C$6">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="TextBox 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1B5452B-3806-FD4D-4C36-BC6B9CFC078F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4428561" y="4154276"/>
+            <a:ext cx="453911" cy="230245"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0"/>
+            <a:fld id="{F103B116-537B-425D-81B0-0D729118E00A}" type="TxLink">
+              <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:rPr>
+              <a:pPr marL="0" indent="0"/>
+              <a:t>28%</a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-IN" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="$C$5">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="TextBox 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8192267-CBF3-38C6-EF24-6895AAF969D2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4255191" y="3749704"/>
+            <a:ext cx="453911" cy="230245"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0"/>
+            <a:fld id="{36F9CEE1-A8E6-4F92-9AE8-32B08ADC9F5A}" type="TxLink">
+              <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:rPr>
+              <a:pPr marL="0" indent="0"/>
+              <a:t>22%</a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-IN" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="$C$4">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="TextBox 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DDE5868-C8FF-84EA-9C88-58E2A16BEE98}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3967978" y="3493145"/>
+            <a:ext cx="453911" cy="230245"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0"/>
+            <a:fld id="{177A7D1B-1722-4F79-8C0B-4E353C4BCBAB}" type="TxLink">
+              <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:rPr>
+              <a:pPr marL="0" indent="0"/>
+              <a:t>15%</a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-IN" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="$C$3">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="TextBox 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{290796B2-868A-B14D-215E-0641DFAA3243}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3719096" y="3416404"/>
+            <a:ext cx="453911" cy="230245"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0"/>
+            <a:fld id="{B178EB69-6367-4B9D-B07F-60DB60D66C1F}" type="TxLink">
+              <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:rPr>
+              <a:pPr marL="0" indent="0"/>
+              <a:t>9%</a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-IN" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="TextBox 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB460E6F-70C5-041B-676E-EC57A6FD014C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="394705" y="2072201"/>
+            <a:ext cx="3137906" cy="1526193"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1250" b="1" kern="1200" spc="0"/>
+              <a:t>Financial</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1250" b="1" kern="1200" spc="0" baseline="0"/>
+              <a:t> Services</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1250" b="1" kern="1200" spc="0" baseline="0"/>
+              <a:t>Telecommunication, Media &amp; Technology</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1250" b="0" kern="1200" spc="0" baseline="0"/>
+              <a:t>Consumer</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1250" b="0" kern="1200" spc="0" baseline="0"/>
+              <a:t>Life Sciences</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1250" b="0" kern="1200" spc="0" baseline="0"/>
+              <a:t>Travel, Logistics &amp; Infrastructure</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1250" b="0" kern="1200" spc="0" baseline="0"/>
+              <a:t>Global Energy &amp; Materials</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1250" b="0" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Advanced Industries</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="1250" b="0" kern="1200" spc="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>131568</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>417923</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85133</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C471D72-BD02-F64F-7E3C-BD4738A4796F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7004080" y="371487"/>
+          <a:ext cx="4728721" cy="456620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1"/>
+            <a:t>Technology enabled up</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" baseline="0"/>
+            <a:t> to 71 percent of the value derived in business transformations across different sectors.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>129183</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>75007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>201222</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>139307</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2742D438-6EDC-0F2A-B00B-7D0B08DF20C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7001695" y="817981"/>
+          <a:ext cx="3879781" cy="250044"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1000" b="1"/>
+            <a:t>Business tranformations impact dependent on</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1000" b="1" baseline="0"/>
+            <a:t> technology, %</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1000" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.07236</cdr:x>
+      <cdr:y>0.54969</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.17016</cdr:x>
+      <cdr:y>0.59489</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88B8DC04-B831-84EA-76EF-D8B2FB9048E2}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="311464" y="2240461"/>
+          <a:ext cx="421019" cy="184196"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>8579</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>573306</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>13842</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="A graph of blue and black bars&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C1B50DE-AB44-42A7-6072-E1B777629A06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699276" y="3844084"/>
+          <a:ext cx="4340167" cy="3857926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>139432</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>109314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>71503</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>45767</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="Group 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EDDDCC9-89C3-4E86-1DAD-45A93DA518A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4197810" y="291486"/>
+          <a:ext cx="4992391" cy="2851197"/>
+          <a:chOff x="4197810" y="291486"/>
+          <a:chExt cx="4992391" cy="2851197"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="5" name="Group 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{898A1BC1-BBF3-0978-BDA7-B2B1D062443A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4197810" y="291486"/>
+            <a:ext cx="4992391" cy="2748446"/>
+            <a:chOff x="4201237" y="292389"/>
+            <a:chExt cx="4965991" cy="2761648"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0363E35-1C12-25A0-838B-00EDE29AD52F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="4201237" y="292389"/>
+            <a:ext cx="4965991" cy="2761648"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6F5CAEB-C5D5-0250-46DD-C781DC1723BF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4273110" y="726486"/>
+              <a:ext cx="2516961" cy="194492"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-IN" sz="700" b="1"/>
+                <a:t>Quarterly machinery</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-IN" sz="700" b="1" baseline="0"/>
+                <a:t> sector M&amp;A activity, </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-IN" sz="700" b="0" baseline="0"/>
+                <a:t>number of deals</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-IN" sz="700" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Left Bracket 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D8480BD-EF2D-965F-F5D2-CF87F59EC9BD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="4995547" y="2641137"/>
+            <a:ext cx="45719" cy="667301"/>
+          </a:xfrm>
+          <a:prstGeom prst="leftBracket">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-IN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="$A$2">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="TextBox 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F833A045-6C45-E4D9-4FA5-5BE5FC585372}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4805328" y="3000554"/>
+            <a:ext cx="400425" cy="142129"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:fld id="{FFBDCEED-A0F6-4790-9D5B-F41655A4E815}" type="TxLink">
+              <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="65000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:rPr>
+              <a:pPr algn="ctr"/>
+              <a:t>2018</a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-IN" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Left Bracket 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{090810DE-78C5-B87B-442C-27E87B537898}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="5826101" y="2639920"/>
+            <a:ext cx="45719" cy="666289"/>
+          </a:xfrm>
+          <a:prstGeom prst="leftBracket">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-IN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="$A$2">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="TextBox 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F919FBA3-2F5F-27F9-B5B4-3506B9075554}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5635376" y="2998831"/>
+            <a:ext cx="401437" cy="142129"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="800">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="65000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>2019</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Left Bracket 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B593F094-394E-0074-34D3-49B08BAEAF95}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="6656150" y="2638201"/>
+            <a:ext cx="45719" cy="666289"/>
+          </a:xfrm>
+          <a:prstGeom prst="leftBracket">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-IN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="$A$2">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="TextBox 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33A8A5C0-9D83-651F-94BE-74DC36ECADC6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6465425" y="2997112"/>
+            <a:ext cx="401437" cy="142129"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="800">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="65000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>2020</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Left Bracket 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A97B69E-5315-495F-DA99-6990D92932A6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="7486199" y="2636482"/>
+            <a:ext cx="45719" cy="666289"/>
+          </a:xfrm>
+          <a:prstGeom prst="leftBracket">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-IN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="$A$2">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="TextBox 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9A9590-1371-E9F7-FF1C-C05A2A4DA9DF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7296486" y="2995393"/>
+            <a:ext cx="400425" cy="142129"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="800">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="65000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>2021</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Left Bracket 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5431AA44-C1E6-621F-D6AE-F23CF9F78D97}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="8333528" y="2637291"/>
+            <a:ext cx="45719" cy="666289"/>
+          </a:xfrm>
+          <a:prstGeom prst="leftBracket">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-IN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="$A$2">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="TextBox 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F809C98C-AB5B-3448-23DB-DB2CBAF352BB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8143815" y="2996202"/>
+            <a:ext cx="400425" cy="142129"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="800">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="65000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>2022</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="$A$2">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="TextBox 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA17B590-5F05-DF05-E287-08456D5F682C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8677397" y="2997009"/>
+            <a:ext cx="400425" cy="142129"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="800">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="65000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>2023</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>431114</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>118412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419964</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>183696</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="A graph of blue and black color&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B635568-5D11-95FD-FF3B-93564BBFE818}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733721" y="1776173"/>
+          <a:ext cx="3843803" cy="3565002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>753226</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>26312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>298555</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>124990</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="Group 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F4664A9-F1D5-B7ED-6AAF-B539D5CC548C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4910786" y="1868269"/>
+          <a:ext cx="4117329" cy="3414200"/>
+          <a:chOff x="5062089" y="1848533"/>
+          <a:chExt cx="4117329" cy="3414200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="3" name="Chart 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93E517F6-7AF6-9E2B-C098-01350FD5537B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="5062089" y="1848533"/>
+          <a:ext cx="4117329" cy="3414200"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="TextBox 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A3059AA-9526-B21C-86D0-7C1D0903D468}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5137745" y="2236664"/>
+            <a:ext cx="3493139" cy="171039"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-IN" sz="800" b="1"/>
+              <a:t>Representation by corporate role, by gender and</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="800" b="1" baseline="0"/>
+              <a:t> race, 2021, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="800" b="0" baseline="0"/>
+              <a:t>% of employees</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="800" b="1"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>198444</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>51527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>256551</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>144726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Left Bracket 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3536501D-3A05-4C12-BFB7-8A18140CADEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="8928004" y="2446071"/>
+          <a:ext cx="58107" cy="2671938"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBracket">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>72366</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>157881</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>513119</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F711C14-56F4-DA3F-4A67-59736A704FC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8801926" y="3657599"/>
+          <a:ext cx="440753" cy="203933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>100%</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,13 +6328,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="146" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" customWidth="1"/>
+    <col min="1" max="1" width="4.1796875" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7265625" style="2"/>
@@ -550,5 +6437,461 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E6F1A2-FF4B-4FF7-9DC7-55FD61B5371E}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="8"/>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="8"/>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3">
+        <v>16</v>
+      </c>
+      <c r="D13" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3">
+        <v>12</v>
+      </c>
+      <c r="D14" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3">
+        <v>15</v>
+      </c>
+      <c r="D15" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3">
+        <v>11</v>
+      </c>
+      <c r="D18" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="3">
+        <v>16</v>
+      </c>
+      <c r="D21" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3">
+        <v>15</v>
+      </c>
+      <c r="D22" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{57E6F1A2-FF4B-4FF7-9DC7-55FD61B5371E}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8774D0F-1C75-4F9E-8B8B-61CC225D7614}">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.1796875" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="14" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="14" customWidth="1"/>
+    <col min="8" max="8" width="7.36328125" style="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="29.05" x14ac:dyDescent="0.35">
+      <c r="B2" s="11"/>
+      <c r="C2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="13">
+        <v>30</v>
+      </c>
+      <c r="D3" s="13">
+        <v>28</v>
+      </c>
+      <c r="E3" s="13">
+        <v>27</v>
+      </c>
+      <c r="F3" s="13">
+        <v>24</v>
+      </c>
+      <c r="G3" s="13">
+        <v>22</v>
+      </c>
+      <c r="H3" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="13">
+        <v>17</v>
+      </c>
+      <c r="D4" s="13">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13">
+        <v>9</v>
+      </c>
+      <c r="F4" s="13">
+        <v>7</v>
+      </c>
+      <c r="G4" s="13">
+        <v>5</v>
+      </c>
+      <c r="H4" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="13">
+        <v>17</v>
+      </c>
+      <c r="D5" s="13">
+        <v>17</v>
+      </c>
+      <c r="E5" s="13">
+        <v>15</v>
+      </c>
+      <c r="F5" s="13">
+        <v>13</v>
+      </c>
+      <c r="G5" s="13">
+        <v>12</v>
+      </c>
+      <c r="H5" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="13">
+        <v>35</v>
+      </c>
+      <c r="D6" s="13">
+        <v>42</v>
+      </c>
+      <c r="E6" s="13">
+        <v>50</v>
+      </c>
+      <c r="F6" s="13">
+        <v>56</v>
+      </c>
+      <c r="G6" s="13">
+        <v>61</v>
+      </c>
+      <c r="H6" s="13">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>